--- a/medicine/Premiers secours et secourisme/Sécurité_civile/Sécurité_civile.xlsx
+++ b/medicine/Premiers secours et secourisme/Sécurité_civile/Sécurité_civile.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S%C3%A9curit%C3%A9_civile</t>
+          <t>Sécurité_civile</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La sécurité civile est l'ensemble des moyens mis en œuvre par un État pour protéger ses citoyens, en temps de guerre comme en temps de paix.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>S%C3%A9curit%C3%A9_civile</t>
+          <t>Sécurité_civile</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le monde, on utilise les termes (ou leurs équivalents dans les pays non francophones) sécurité civile et défense civile. La définition exacte des termes peut varier selon les pays.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>S%C3%A9curit%C3%A9_civile</t>
+          <t>Sécurité_civile</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans la philosophie des Lumières, la protection des citoyens contre les accidents et les calamités (catastrophes naturelles, épidémies…) est une des fonctions de l'État. Ceci est d'ailleurs affirmé dans la Déclaration des droits de l'homme et du citoyen de 1789, qui est un préambule de la constitution française :
 Art. 2 - Le but de toute association politique est la conservation des droits naturels et imprescriptibles de l'homme. Ces droits sont […] la sûreté […].
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>S%C3%A9curit%C3%A9_civile</t>
+          <t>Sécurité_civile</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Organisation de la sécurité civile</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La notion de sécurité civile a pris une ampleur particulièrement importante dans la deuxième moitié du XXe siècle, avec
 la guerre froide et notamment le risque nucléaire ;
@@ -604,7 +622,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>S%C3%A9curit%C3%A9_civile</t>
+          <t>Sécurité_civile</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -624,26 +642,99 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Mécanisme européen de protection civile (MEPC)
-Créé en 2001 d'abord pour aider à la coopération entre autorités nationales de protection civile de pays européens, ce mécanisme permet - quand cela est nécessaire et décidé - une réponse européenne mieux coordonnée, et optimisant l'efficacité de la réponse à une crise, notamment si elle est transfrontalière, de pollution marine (alors en lien avec l'Agence européenne de sécurité maritime ou EMSA), ou pour répondre à une demande d'aide d'une région touchée par une catastrophe. Une aide organisationnelle, en nature (dont apport de données satellites fraiches pour évaluer une situation et son évolution), le déploiement d'équipes ou d'experts. Le mécanisme doit aussi améliorer la qualité, la pertinence et l’accessibilité des informations mise à disposition en cas de catastrophe. Il favorise les recherches concernant la résilience aux catastrophes. Il développe des outils d’alerte précoce[1]. De 2001 à 2018, son plus grand déploiement a concerné la crise des feux de forêts en Suède en 2018 (sur 3 semaines : 7 avions, 6 hélicoptères, 67 véhicules et plus de 360 pompiers et personnels d'appui pour lutter contre « des incendies forestiers sans précédent (…) 815 heures de vols et 8822 largages d’eau »)[2].
-Tout pays non-européen peut aussi solliciter l'aide du MEPC (mécanisme européen de protection civile). De 2001 à 2018 il s'est mis en alerte pour plus de 300 catastrophes et a reçu plus de 200 demandes d'aide (ex ; tremblement de terre d'Haïti (2010), Genpatsu-shinsai dit catastrophe de Fukushima, Tsunami et tremblement de terre de 2011 au Japon ; typhon Haiyan aux Philippines (2013) ; inondations en Serbie et en Bosnie-Herzégovine en 2014) ; épidémie Ebola de 2014) ; conflit ukrainien en 2014 ; séisme au Népal (2015) ; crise des réfugiés en Europe. Hors de l'Europe ce mécanisme peut être activé conjointement à celui de l'aide humanitaire de l’UE[1].
-En novembre 2017 la commission a proposé de renforcer la protection civile dans l'EU car dans le contexte du dérèglement climatique, des crises plus fréquentes et plus graves sont attendues[1].
-Coordination : Un Centre de coordination des interventions d'urgence (ERCC) fait de la veille (mondiale et en continu), peut coordonner les interventions de pays en crise et/ou volontaire. Des modules de protection civile prépositionnés et autonomes existent pour la recherche et le sauvetage de victimes, incluant des moyens aériens et de lutte contre les incendies de forêt, ainsi que des "postes médicaux avancés", moyens que l'ERCC peut mobiliser à la demande dans l'UE et à l'extérieur. Des experts peuvent contribuer à la formation professionnelle d'équipes de protection civile dans les pays-membres et aux "échanges de bonnes pratiques"[1].
-Volontaires : une réserve de volontaires créée en 2014 constitue la "Capacité européenne de réaction d'urgence" (EERC), souvent dénommée ‘pool volontaire’ (23 États participants en 2018, avec 99 capacités d’intervention spécialisées[3]). Elle inclut le Corps médical européen (Officiellement lancé en février 2016 [4]) et est mobilisable pour certaines situations d'urgence, contribuant à "faciliter la planification et la coordination aux échelons européen et national". Elle n'a été mise en œuvre que deux fois (épidémie de fièvre Ebola)[1].
-Moyens de communication d’urgence et de veille : ces moyens sont supervisés par l’ERCC via le "Système commun de communication et d’information d’urgence" (CECIS, qui est une application en ligne permettant d'échanger, d'alerter et notifier en temps réel des informations entre États participants et ERCC[1].
-Belgique
-France
-Parmi les acteurs de la sécurité civile figurent les sapeurs-pompiers, les militaires des unités d'instruction et d'intervention, les pilotes d'avions et d'hélicoptères ainsi que les démineurs. Tous ensemble, ils luttent au quotidien pour porter secours et assistance, en France comme à l'étranger. Pour eux, une seule vocation : la sauvegarde des personnes et des biens.
+          <t>Mécanisme européen de protection civile (MEPC)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Créé en 2001 d'abord pour aider à la coopération entre autorités nationales de protection civile de pays européens, ce mécanisme permet - quand cela est nécessaire et décidé - une réponse européenne mieux coordonnée, et optimisant l'efficacité de la réponse à une crise, notamment si elle est transfrontalière, de pollution marine (alors en lien avec l'Agence européenne de sécurité maritime ou EMSA), ou pour répondre à une demande d'aide d'une région touchée par une catastrophe. Une aide organisationnelle, en nature (dont apport de données satellites fraiches pour évaluer une situation et son évolution), le déploiement d'équipes ou d'experts. Le mécanisme doit aussi améliorer la qualité, la pertinence et l’accessibilité des informations mise à disposition en cas de catastrophe. Il favorise les recherches concernant la résilience aux catastrophes. Il développe des outils d’alerte précoce. De 2001 à 2018, son plus grand déploiement a concerné la crise des feux de forêts en Suède en 2018 (sur 3 semaines : 7 avions, 6 hélicoptères, 67 véhicules et plus de 360 pompiers et personnels d'appui pour lutter contre « des incendies forestiers sans précédent (…) 815 heures de vols et 8822 largages d’eau »).
+Tout pays non-européen peut aussi solliciter l'aide du MEPC (mécanisme européen de protection civile). De 2001 à 2018 il s'est mis en alerte pour plus de 300 catastrophes et a reçu plus de 200 demandes d'aide (ex ; tremblement de terre d'Haïti (2010), Genpatsu-shinsai dit catastrophe de Fukushima, Tsunami et tremblement de terre de 2011 au Japon ; typhon Haiyan aux Philippines (2013) ; inondations en Serbie et en Bosnie-Herzégovine en 2014) ; épidémie Ebola de 2014) ; conflit ukrainien en 2014 ; séisme au Népal (2015) ; crise des réfugiés en Europe. Hors de l'Europe ce mécanisme peut être activé conjointement à celui de l'aide humanitaire de l’UE.
+En novembre 2017 la commission a proposé de renforcer la protection civile dans l'EU car dans le contexte du dérèglement climatique, des crises plus fréquentes et plus graves sont attendues.
+Coordination : Un Centre de coordination des interventions d'urgence (ERCC) fait de la veille (mondiale et en continu), peut coordonner les interventions de pays en crise et/ou volontaire. Des modules de protection civile prépositionnés et autonomes existent pour la recherche et le sauvetage de victimes, incluant des moyens aériens et de lutte contre les incendies de forêt, ainsi que des "postes médicaux avancés", moyens que l'ERCC peut mobiliser à la demande dans l'UE et à l'extérieur. Des experts peuvent contribuer à la formation professionnelle d'équipes de protection civile dans les pays-membres et aux "échanges de bonnes pratiques".
+Volontaires : une réserve de volontaires créée en 2014 constitue la "Capacité européenne de réaction d'urgence" (EERC), souvent dénommée ‘pool volontaire’ (23 États participants en 2018, avec 99 capacités d’intervention spécialisées). Elle inclut le Corps médical européen (Officiellement lancé en février 2016 ) et est mobilisable pour certaines situations d'urgence, contribuant à "faciliter la planification et la coordination aux échelons européen et national". Elle n'a été mise en œuvre que deux fois (épidémie de fièvre Ebola).
+Moyens de communication d’urgence et de veille : ces moyens sont supervisés par l’ERCC via le "Système commun de communication et d’information d’urgence" (CECIS, qui est une application en ligne permettant d'échanger, d'alerter et notifier en temps réel des informations entre États participants et ERCC.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sécurité_civile</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/S%C3%A9curit%C3%A9_civile</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Sécurité civile en Europe et par pays</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Parmi les acteurs de la sécurité civile figurent les sapeurs-pompiers, les militaires des unités d'instruction et d'intervention, les pilotes d'avions et d'hélicoptères ainsi que les démineurs. Tous ensemble, ils luttent au quotidien pour porter secours et assistance, en France comme à l'étranger. Pour eux, une seule vocation : la sauvegarde des personnes et des biens.
 En France, le terme sécurité civile n'est pas l'exact synonyme de protection civile : la sécurité civile est une fonction régalienne de l'État, tandis que la protection civile désigne à la fois :
 cette mission de secours ;
 des services préfectoraux chargés de mettre en œuvre la politique de sécurité civile au niveau du département, baptisés « Service interministériel de défense et protection civile » (SIDPC) ou « Service interministériel des affaires civiles et économiques de défense et de protection civile » (SIACEDPC) ;
 plusieurs associations de secouristes, qui possèdent parfois un logo relativement similaire.
 En France, La Sécurité civile en tant qu'administration a été créée le 17 novembre 1951.
 L'article 1 de la loi n°2004-811 du 13 août 2004 de modernisation de la sécurité civile définit que :
-« la sécurité civile a pour objet la prévention des risques de toute nature, l'information et l'alerte des populations ainsi que la protection des personnes, des biens et de l'environnement par la préparation et la mise en œuvre de mesures et de moyens appropriés relevant de l'État, des collectivités territoriales et les personnes publiques ou privées. »
-Royaume-Uni
-Durant la Seconde Guerre mondiale, fut créé un ministère de la Sécurité civile.
-Suisse</t>
+« la sécurité civile a pour objet la prévention des risques de toute nature, l'information et l'alerte des populations ainsi que la protection des personnes, des biens et de l'environnement par la préparation et la mise en œuvre de mesures et de moyens appropriés relevant de l'État, des collectivités territoriales et les personnes publiques ou privées. »</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sécurité_civile</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/S%C3%A9curit%C3%A9_civile</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Sécurité civile en Europe et par pays</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Royaume-Uni</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Durant la Seconde Guerre mondiale, fut créé un ministère de la Sécurité civile.
+</t>
         </is>
       </c>
     </row>
